--- a/src/test/java/Resources/EnvConfig.xlsx
+++ b/src/test/java/Resources/EnvConfig.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9b4c788e2d6c3be4/Desktop/E-Commerce/E_Commerce_Testing/src/test/java/Resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rohit\OneDrive\Desktop\E-Commerce\E_Commerce_Testing\src\test\java\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="32" documentId="11_F25DC773A252ABDACC10487D699A63325ADE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A3E5C4D2-647C-4E56-8D06-31DA87F6F63F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00AAD481-2DA8-44BA-8522-8A6EE562CF28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -125,12 +125,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -412,10 +413,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -456,6 +457,9 @@
         <v>6</v>
       </c>
     </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" xr:uid="{4627F6B4-7DBA-462F-80F9-C79709957656}"/>

--- a/src/test/java/Resources/EnvConfig.xlsx
+++ b/src/test/java/Resources/EnvConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rohit\OneDrive\Desktop\E-Commerce\E_Commerce_Testing\src\test\java\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00AAD481-2DA8-44BA-8522-8A6EE562CF28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C04A7818-D88A-44FA-B0DA-999F2AF87B17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,10 +45,10 @@
     <t>log</t>
   </si>
   <si>
-    <t>src/test/java/Resources/log4j.properties</t>
-  </si>
-  <si>
     <t>chrome</t>
+  </si>
+  <si>
+    <t>src/test/java/utils/log4j.properties</t>
   </si>
 </sst>
 </file>
@@ -125,13 +125,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -416,7 +415,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -438,7 +437,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -454,11 +453,11 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
+      <c r="A5" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
